--- a/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF9827-7632-46A4-85F2-C6B23B243AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1733B7CB-295C-44C0-8154-7B7A52ADBF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1065" windowWidth="11505" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="11505" windowHeight="10065" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -621,27 +621,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,9 +665,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,17 +683,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5600,7 +5600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
@@ -5610,146 +5610,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5886,40 +5886,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -6096,7 +6096,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -6138,7 +6138,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6180,7 +6180,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -6222,7 +6222,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6264,7 +6264,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6306,7 +6306,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -6348,7 +6348,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -6390,7 +6390,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -6432,7 +6432,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -6474,7 +6474,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -6516,7 +6516,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6558,7 +6558,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -6600,7 +6600,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -6642,7 +6642,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6684,7 +6684,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -6726,7 +6726,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -6768,7 +6768,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -6810,7 +6810,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -10232,146 +10232,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -10508,40 +10508,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -10718,7 +10718,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -10760,7 +10760,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -10802,7 +10802,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -10844,7 +10844,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -10886,7 +10886,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -10928,7 +10928,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -10970,7 +10970,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -11012,7 +11012,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -11054,7 +11054,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -11096,7 +11096,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -11138,7 +11138,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -11180,7 +11180,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -11222,7 +11222,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -11264,7 +11264,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -11306,7 +11306,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -11348,7 +11348,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -11390,7 +11390,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -11432,7 +11432,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -14814,6 +14814,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -14821,14 +14828,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14844,8 +14844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F62FAA4-482C-49B3-97D6-4F81DBEEB79C}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AE1"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14854,146 +14854,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -15130,40 +15130,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -15340,7 +15340,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -15382,7 +15382,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -15424,7 +15424,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -15466,7 +15466,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -15508,7 +15508,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -15550,7 +15550,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -15592,7 +15592,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -15634,7 +15634,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -15676,7 +15676,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -15718,7 +15718,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -15760,7 +15760,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -15802,7 +15802,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -15844,7 +15844,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -15886,7 +15886,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -15928,7 +15928,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -15970,7 +15970,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -16012,7 +16012,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -16054,7 +16054,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -19436,6 +19436,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -19443,14 +19450,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19476,146 +19476,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -19752,40 +19752,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -19962,7 +19962,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -20004,7 +20004,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -20046,7 +20046,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -20088,7 +20088,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -20130,7 +20130,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -20172,7 +20172,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -20214,7 +20214,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -20256,7 +20256,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -20298,7 +20298,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -20340,7 +20340,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -20382,7 +20382,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -20424,7 +20424,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -20466,7 +20466,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -20508,7 +20508,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -20550,7 +20550,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -20592,7 +20592,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -20634,7 +20634,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -20676,7 +20676,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -24058,6 +24058,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -24065,14 +24072,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -24098,146 +24098,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -24374,40 +24374,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -24584,7 +24584,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -24626,7 +24626,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -24668,7 +24668,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -24710,7 +24710,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -24752,7 +24752,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -24794,7 +24794,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -24836,7 +24836,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -24878,7 +24878,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -24920,7 +24920,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -24962,7 +24962,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -25004,7 +25004,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -25046,7 +25046,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -25088,7 +25088,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -25130,7 +25130,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -25172,7 +25172,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -25214,7 +25214,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -25256,7 +25256,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -25298,7 +25298,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -28680,6 +28680,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -28687,14 +28694,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -28720,146 +28720,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28996,40 +28996,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -29206,7 +29206,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -29248,7 +29248,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -29290,7 +29290,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -29332,7 +29332,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -29374,7 +29374,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -29416,7 +29416,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -29458,7 +29458,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -29500,7 +29500,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -29542,7 +29542,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -29584,7 +29584,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -29626,7 +29626,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -29668,7 +29668,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -29710,7 +29710,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -29752,7 +29752,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -29794,7 +29794,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -29836,7 +29836,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -29878,7 +29878,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -29920,7 +29920,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -33302,6 +33302,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -33309,14 +33316,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -33342,146 +33342,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33618,40 +33618,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -33828,7 +33828,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -33870,7 +33870,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -33912,7 +33912,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -33954,7 +33954,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -33996,7 +33996,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -34038,7 +34038,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -34080,7 +34080,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -34122,7 +34122,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -34164,7 +34164,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -34206,7 +34206,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -34248,7 +34248,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -34290,7 +34290,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -34332,7 +34332,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -34374,7 +34374,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -34416,7 +34416,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -34458,7 +34458,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -34500,7 +34500,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -34542,7 +34542,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -37924,6 +37924,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -37931,14 +37938,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37964,146 +37964,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -38240,40 +38240,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="23"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -38450,7 +38450,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -38492,7 +38492,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -38534,7 +38534,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -38576,7 +38576,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="49"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -38618,7 +38618,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -38660,7 +38660,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -38702,7 +38702,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -38744,7 +38744,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -38786,7 +38786,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -38828,7 +38828,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -38870,7 +38870,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -38912,7 +38912,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -38954,7 +38954,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -38996,7 +38996,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -39038,7 +39038,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -39080,7 +39080,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -39122,7 +39122,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -39164,7 +39164,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -42546,6 +42546,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -42553,14 +42560,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1733B7CB-295C-44C0-8154-7B7A52ADBF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AED72AC-DACE-4695-82D7-2543A20EBA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="11505" windowHeight="10065" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1185" windowWidth="11490" windowHeight="8610" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -1560,16 +1560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>210110</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>126067</xdr:rowOff>
+      <xdr:colOff>98051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1584,8 +1584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8562975" y="1812552"/>
-          <a:ext cx="1272988" cy="409015"/>
+          <a:off x="8614522" y="2283198"/>
+          <a:ext cx="1288676" cy="420221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,14 +1623,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>14006</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>126066</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>154081</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154081</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1645,8 +1645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6643406" y="4317066"/>
-          <a:ext cx="2073650" cy="409015"/>
+          <a:off x="6737535" y="4734485"/>
+          <a:ext cx="2101105" cy="420221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1683,138 +1683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>154079</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
+      <xdr:colOff>84043</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>70037</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>182097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125F7D18-5DE3-4C58-98E2-9EF4CC69FCFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4573679" y="1580031"/>
-          <a:ext cx="2125758" cy="507066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>112056</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E3AD38-DA32-4CEA-9B02-44DF6CD1C452}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8122581" y="5241552"/>
-          <a:ext cx="2125758" cy="338978"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@copyright</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>168086</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28017</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1829,8 +1706,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3206561" y="4572001"/>
-          <a:ext cx="1807511" cy="409016"/>
+          <a:off x="4566396" y="4860552"/>
+          <a:ext cx="1834965" cy="420221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2246,129 +2123,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>管理者ログイン</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>84046</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>252133</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>14009</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB42B0E6-3DC6-4B04-9F49-37D719B89BCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4538381" y="1456767"/>
-          <a:ext cx="2157134" cy="518271"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>112056</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>154082</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E532FA55-15C4-4370-8559-9A33E8147E91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8236321" y="5490883"/>
-          <a:ext cx="2157134" cy="350184"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@copyright</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2817,129 +2571,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>管理者ログイン</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>154079</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>70037</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDB0987-E282-485B-85FF-3024F7B1C79D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4573679" y="1580031"/>
-          <a:ext cx="2125758" cy="507066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>112056</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0549E9EB-0AEE-404E-AC96-A4F02F9665DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8122581" y="5241552"/>
-          <a:ext cx="2125758" cy="338978"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@copyright</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10222,8 +9853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114267CE-695A-4559-A086-39517E660F11}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14844,7 +14475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F62FAA4-482C-49B3-97D6-4F81DBEEB79C}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -19467,7 +19098,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView topLeftCell="D6" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AED72AC-DACE-4695-82D7-2543A20EBA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECED1DB-07E7-42CE-B0BB-FA99D71139C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1185" windowWidth="11490" windowHeight="8610" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -192,6 +192,160 @@
   </si>
   <si>
     <t>DBカラム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページロード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロード時に、以下の処理を実行する。</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン状態を判定し、ログイン状態であれば「５　新規会員登録」を「１２　マイページ」に変更する。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイキャッチ画像を読み込み、スライドショーを行う。</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>有効なカテゴリを取得し「３　カテゴリ選択」に追加する。１番上の項目のみ固定で「すべての商品」を追加する。</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>有効なカテゴリを取得し「８　カテゴリ欄」に表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おすすめ商品設定テーブルから、優先順位昇順に取得し、上位３件を左から順に「１１　おすすめ商品欄」に表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -567,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -706,6 +860,9 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1293,6 +1450,73 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504AC2E3-6505-4987-8EA8-BB07FCDF6CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683934" y="1792941"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5231,8 +5455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8:AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6988,8 +7212,10 @@
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -7030,8 +7256,10 @@
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -7072,8 +7300,8 @@
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -7114,8 +7342,10 @@
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51" t="s">
+        <v>23</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -7156,8 +7386,10 @@
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -7198,8 +7430,9 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="D48" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -7240,8 +7473,10 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51" t="s">
+        <v>26</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -7282,8 +7517,9 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="D50" s="51" t="s">
+        <v>27</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -9853,7 +10089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114267CE-695A-4559-A086-39517E660F11}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
@@ -14476,7 +14712,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECED1DB-07E7-42CE-B0BB-FA99D71139C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A328F2C2-33A5-46C8-8D63-0F1C61F4F16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
-    <sheet name="新規登録ページ" sheetId="3" r:id="rId2"/>
-    <sheet name="管理者ログインページ " sheetId="4" r:id="rId3"/>
+    <sheet name="新規登録ページ" sheetId="18" r:id="rId2"/>
+    <sheet name="管理者ログインページ" sheetId="17" r:id="rId3"/>
     <sheet name="トップページ（カレンダー）" sheetId="5" r:id="rId4"/>
     <sheet name="診断ページ" sheetId="9" r:id="rId5"/>
     <sheet name="診断結果ページ " sheetId="11" r:id="rId6"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'トップページ（管理者）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ログインページ!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'閲覧ページ（管理者）'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'管理者ログインページ '!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">管理者ログインページ!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">新規登録ページ!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">診断ページ!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'診断結果ページ '!$1:$4</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -410,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -716,12 +716,270 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -786,6 +1044,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,7 +1122,83 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -886,16 +1223,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>14006</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>126064</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168085</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154079</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>98052</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -910,8 +1247,170 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5616947" y="2871505"/>
-          <a:ext cx="2003052" cy="420221"/>
+          <a:off x="4370291" y="3249703"/>
+          <a:ext cx="2451290" cy="420221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>入力欄</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168085</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>84043</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F56772-5628-4748-8D95-8FC21B8C552F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4370291" y="4006103"/>
+          <a:ext cx="2437281" cy="420221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>　入力欄</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>196100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>70037</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF67AE67-D916-4982-8534-A07D603D8A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7760071" y="1638862"/>
+          <a:ext cx="2395260" cy="420221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -938,328 +1437,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>入力欄</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28012</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F56772-5628-4748-8D95-8FC21B8C552F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5630953" y="3683935"/>
-          <a:ext cx="2437281" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード　入力欄</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14007</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266138</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9AB0372-A89B-4661-A0E9-4688A14063C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3375772" y="3669925"/>
-          <a:ext cx="1372719" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>210110</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182095</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C710C058-BC47-4EAA-A21C-A145511497BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3403787" y="2899521"/>
-          <a:ext cx="1288676" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>　</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>126066</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B5A547-7AE0-4D1E-A109-8176193632FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8642537" y="2325220"/>
-          <a:ext cx="1288676" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>280144</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>140073</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>70039</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF67AE67-D916-4982-8534-A07D603D8A96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7844115" y="1610847"/>
-          <a:ext cx="2101105" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>管理者ログインへ</a:t>
+            <a:t>管理者用ログインへ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1391,16 +1569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>42020</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>70038</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>196103</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>98054</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>42022</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1415,7 +1593,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524373" y="4776509"/>
+          <a:off x="6051175" y="4664450"/>
           <a:ext cx="1834965" cy="420221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1517,6 +1695,193 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182095</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83043FAA-F300-40BF-94ED-60303384FFF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2703419" y="2563344"/>
+          <a:ext cx="3123639" cy="490258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>受講者用ログイン画面　</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" u="none">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>252132</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>14006</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850F0290-8E31-404E-B353-8959AF23B1E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2493308" y="4664446"/>
+          <a:ext cx="3123639" cy="490258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規登録はこちら</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1524,23 +1889,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>14006</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>126064</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238119</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154079</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB42AB6F-4C04-4DA1-86D1-FDF70FAFBA5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93C54FC-F8D7-4199-9387-016B4441D98E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,8 +1913,293 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5538506" y="2793064"/>
-          <a:ext cx="1975597" cy="409015"/>
+          <a:off x="3319737" y="3193674"/>
+          <a:ext cx="1890997" cy="378199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>入力欄</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210107</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154082</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945EC288-3913-4598-A0FC-BFF7A850F1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3291725" y="3852023"/>
+          <a:ext cx="1905004" cy="378198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>　入力欄</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14005</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>210110</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB991CD4-336E-47FE-A3BE-BF2A91E53284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4157380" y="1538009"/>
+          <a:ext cx="2129680" cy="507066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>154078</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>70035</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D17A19C-B213-49F3-A569-8F617DA1EA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877607" y="5434854"/>
+          <a:ext cx="2157134" cy="350184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>@copyright</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>252133</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>126067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D03124-9487-44F5-90D3-AD5F04AF2FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4538382" y="4608420"/>
+          <a:ext cx="1876986" cy="420221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,11 +2226,405 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>登録完了ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F73B20-EB7F-4B71-8509-B05D2381BC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3632947" y="1742515"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14007</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD5F2FB-A9C8-4E93-9520-577F49DFDB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3936066" y="2591359"/>
+          <a:ext cx="3123639" cy="490258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面　</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" b="1" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>140073</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC15DBB-E090-40A2-A19E-3CEE0CDE7B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5518893" y="3852024"/>
+          <a:ext cx="2465298" cy="378198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード確認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>　入力欄</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84044</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84045</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45549ED1-96A6-421D-9723-880D744B6970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2885515" y="4860552"/>
+          <a:ext cx="1120589" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168085</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>98052</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532ACD64-207D-4B4A-9588-EC5441E99C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4311460" y="3160056"/>
+          <a:ext cx="2415992" cy="409015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>ユーザ</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
@@ -1593,23 +2637,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28012</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154082</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168085</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>84043</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AAAA80-3FC2-4448-AE2D-4D9AF9571134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DA073B-9C71-45E2-B242-8C1B1B12DDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,8 +2661,79 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5552512" y="3583082"/>
-          <a:ext cx="2405904" cy="409015"/>
+          <a:off x="4311460" y="3894044"/>
+          <a:ext cx="2401983" cy="409015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>　入力欄</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>126063</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>266139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A14BE76-095F-468B-AEC1-DD6613AA8A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7860363" y="1594038"/>
+          <a:ext cx="2073651" cy="409016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,7 +2760,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード　入力欄</a:t>
+            <a:t>受講者ログインへ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1654,23 +2769,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14007</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140072</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14005</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266138</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>210110</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590A72A4-C370-481E-9992-D140BCB87FA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97390BFA-62E9-4F60-AEAD-2BE1CA1C3728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,8 +2793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3328707" y="3569072"/>
-          <a:ext cx="1357031" cy="409015"/>
+          <a:off x="4157380" y="1538009"/>
+          <a:ext cx="2129680" cy="507066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,10 +2818,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード</a:t>
+            <a:t>タイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1715,23 +2830,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>224115</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>210110</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182095</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>140073</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579A983B-C328-4C15-8125-1B35C3DAAF2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52313F36-9A97-4CE2-9769-A2C859DF6998}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,8 +2854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3356722" y="2821080"/>
-          <a:ext cx="1272988" cy="409015"/>
+          <a:off x="7682190" y="5334000"/>
+          <a:ext cx="2125758" cy="344581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1764,19 +2879,12 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ユーザ</a:t>
-          </a:r>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ID</a:t>
+            <a:t>@copyright</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>　</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1784,23 +2892,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>210110</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>126066</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>98051</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>154081</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>42022</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F23C335-211A-42E4-9267-04F1E28B00E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A52D1B8-96AF-41B9-860A-FD8D31BF0BDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,130 +2916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8614522" y="2283198"/>
-          <a:ext cx="1288676" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>14006</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28014</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>154081</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4196980-72A1-436C-A95E-4AE5A249CC83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6737535" y="4734485"/>
-          <a:ext cx="2101105" cy="420221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>管理者ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>84043</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154081</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B80DEC1-414D-493F-8B75-936993CA36F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4566396" y="4860552"/>
-          <a:ext cx="1834965" cy="420221"/>
+          <a:off x="5968812" y="4535582"/>
+          <a:ext cx="1807510" cy="409015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,449 +2951,181 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>14006</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>126064</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154079</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="275653" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37136D2-F524-4EE0-AF13-239D82218404}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CD55CC-B9C9-49B5-AE7E-8F91A6F0BF57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5538506" y="2793064"/>
-          <a:ext cx="1975597" cy="409015"/>
+          <a:off x="3632947" y="1742515"/>
+          <a:ext cx="275653" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182095</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FE22D1-5362-4F9A-9B89-D6298CF798D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2668120" y="2490506"/>
+          <a:ext cx="3080497" cy="479052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ユーザ</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理者</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ID</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用ログイン画面　</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>入力欄</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28012</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FB96C5-FEB6-4DAB-8015-2B9FD88CF376}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5552512" y="3583082"/>
-          <a:ext cx="2405904" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード　入力欄</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14007</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266138</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580995CD-21E1-4A2D-9531-C196B880D51B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3328707" y="3569072"/>
-          <a:ext cx="1357031" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>210110</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182095</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C44F07-D814-451A-B3E9-4CFCC614C44F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3356722" y="2821080"/>
-          <a:ext cx="1272988" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>　</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>126067</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73A1EF4-0124-4E84-A995-8A83CEF4E566}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8562975" y="1812552"/>
-          <a:ext cx="1272988" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>14006</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>126066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>154081</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154081</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43972A81-79E2-4698-B841-4A3C0A5A63BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6643406" y="4317066"/>
-          <a:ext cx="2073650" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>管理者ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>168086</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28017</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED91222-4E1F-4659-92A1-38103DC1E353}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3206561" y="4572001"/>
-          <a:ext cx="1807511" cy="409016"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ログインボタン</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4000" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3821,16 +4539,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>154079</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>126065</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
+      <xdr:rowOff>42024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>70037</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>42023</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
+      <xdr:rowOff>168090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3845,8 +4563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4573679" y="1580031"/>
-          <a:ext cx="2125758" cy="507066"/>
+          <a:off x="4328271" y="1610848"/>
+          <a:ext cx="2157134" cy="518271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5455,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8:AH10"/>
+    <sheetView topLeftCell="A5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5465,146 +6183,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5958,26 +6676,26 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="54"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -6000,7 +6718,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -6019,7 +6737,7 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+      <c r="AD14" s="56"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -6042,7 +6760,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -6061,7 +6779,7 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
+      <c r="AD15" s="56"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -6084,7 +6802,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -6103,7 +6821,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
+      <c r="AD16" s="56"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
@@ -6126,7 +6844,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -6145,7 +6863,7 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
+      <c r="AD17" s="56"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -6168,7 +6886,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
@@ -6187,7 +6905,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
+      <c r="AD18" s="56"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -6210,7 +6928,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
@@ -6229,7 +6947,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
+      <c r="AD19" s="56"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -6252,7 +6970,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
@@ -6271,7 +6989,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
+      <c r="AD20" s="56"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -6294,7 +7012,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -6313,7 +7031,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
+      <c r="AD21" s="56"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -6336,7 +7054,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -6355,7 +7073,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
+      <c r="AD22" s="56"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -6378,7 +7096,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -6397,7 +7115,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
+      <c r="AD23" s="56"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -6420,7 +7138,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -6439,7 +7157,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
+      <c r="AD24" s="56"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -6462,7 +7180,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -6481,7 +7199,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
+      <c r="AD25" s="56"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -6504,7 +7222,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -6523,7 +7241,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
+      <c r="AD26" s="56"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
@@ -6546,26 +7264,26 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="59"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -7300,8 +8018,8 @@
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -7342,8 +8060,8 @@
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="9"/>
@@ -7386,7 +8104,7 @@
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="51"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="1" t="s">
         <v>24</v>
       </c>
@@ -7473,8 +8191,8 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="9"/>
@@ -7517,7 +8235,7 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="9"/>
@@ -10086,11 +10804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114267CE-695A-4559-A086-39517E660F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918363F2-AD48-405C-A0A2-3BC9995910AB}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10099,146 +10817,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -10592,26 +11310,26 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="71"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -10634,7 +11352,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -10653,7 +11371,7 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+      <c r="AD14" s="73"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -10676,7 +11394,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -10695,7 +11413,7 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
+      <c r="AD15" s="73"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -10718,7 +11436,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -10737,7 +11455,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
+      <c r="AD16" s="73"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
@@ -10760,7 +11478,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -10779,7 +11497,7 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
+      <c r="AD17" s="73"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -10802,7 +11520,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
@@ -10821,7 +11539,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
+      <c r="AD18" s="73"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -10844,7 +11562,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
@@ -10863,7 +11581,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
+      <c r="AD19" s="73"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -10886,7 +11604,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
@@ -10905,7 +11623,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
+      <c r="AD20" s="73"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -10928,7 +11646,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -10947,7 +11665,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
+      <c r="AD21" s="73"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -10970,7 +11688,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -10989,7 +11707,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
+      <c r="AD22" s="73"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -11012,7 +11730,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -11031,7 +11749,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
+      <c r="AD23" s="73"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -11054,7 +11772,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -11073,7 +11791,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
+      <c r="AD24" s="73"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -11096,7 +11814,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -11115,7 +11833,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
+      <c r="AD25" s="73"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -11138,7 +11856,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -11157,7 +11875,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
+      <c r="AD26" s="73"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
@@ -11180,26 +11898,26 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="76"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -11299,40 +12017,40 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="13"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="7"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
@@ -11341,40 +12059,40 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="78"/>
+      <c r="AJ31" s="78"/>
+      <c r="AK31" s="78"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
@@ -11846,8 +12564,10 @@
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -11888,8 +12608,10 @@
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -11930,8 +12652,8 @@
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -11972,8 +12694,10 @@
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -12014,8 +12738,10 @@
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -12056,8 +12782,9 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="D48" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -12098,8 +12825,10 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -12140,8 +12869,9 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="D50" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -14681,13 +15411,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -14695,7 +15418,14 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14708,11 +15438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F62FAA4-482C-49B3-97D6-4F81DBEEB79C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4026C572-812E-4B22-9D80-F8F3C19BF7C9}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14721,146 +15451,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -15214,26 +15944,26 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="63"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -15256,7 +15986,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -15275,7 +16005,7 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+      <c r="AD14" s="65"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -15298,7 +16028,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -15317,7 +16047,7 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
+      <c r="AD15" s="65"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -15340,7 +16070,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -15359,7 +16089,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
+      <c r="AD16" s="65"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
@@ -15382,7 +16112,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -15401,7 +16131,7 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
+      <c r="AD17" s="65"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -15424,7 +16154,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
@@ -15443,7 +16173,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
+      <c r="AD18" s="65"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -15466,7 +16196,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
@@ -15485,7 +16215,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
+      <c r="AD19" s="65"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -15508,7 +16238,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
@@ -15527,7 +16257,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
+      <c r="AD20" s="65"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -15550,7 +16280,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -15569,7 +16299,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
+      <c r="AD21" s="65"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -15592,7 +16322,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="64"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -15611,7 +16341,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
+      <c r="AD22" s="65"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -15630,11 +16360,11 @@
       <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="64"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -15653,7 +16383,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
+      <c r="AD23" s="65"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -15676,7 +16406,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="K24" s="64"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -15695,7 +16425,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
+      <c r="AD24" s="65"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -15718,7 +16448,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="64"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -15737,7 +16467,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
+      <c r="AD25" s="65"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -15760,7 +16490,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="K26" s="64"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -15779,7 +16509,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
+      <c r="AD26" s="65"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
@@ -15802,26 +16532,26 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="68"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -16468,8 +17198,10 @@
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -16510,8 +17242,10 @@
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -16552,8 +17286,8 @@
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -16594,8 +17328,10 @@
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -16636,8 +17372,10 @@
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -16678,8 +17416,9 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="D48" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -16720,8 +17459,10 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -16762,8 +17503,9 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="D50" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -19303,13 +20045,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -19317,7 +20052,14 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19343,146 +20085,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -23965,146 +24707,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28577,7 +29319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EA1739-BBDA-4527-9E49-A426BDC9A20B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
@@ -28587,146 +29329,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33209,146 +33951,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -37831,146 +38573,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>

--- a/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （星）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A328F2C2-33A5-46C8-8D63-0F1C61F4F16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1331EE34-7955-4A5F-BB6C-CA98B9CA0612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,81 +1047,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1200,6 +1125,81 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2481,13 +2481,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>84044</xdr:colOff>
+      <xdr:colOff>112059</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>154081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>84045</xdr:colOff>
+      <xdr:colOff>112060</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>98052</xdr:rowOff>
     </xdr:to>
@@ -2504,7 +2504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2885515" y="4860552"/>
+          <a:off x="2913530" y="4860552"/>
           <a:ext cx="1120589" cy="336176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6173,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A3" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6183,146 +6183,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -6676,26 +6676,26 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="54"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="29"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -6718,7 +6718,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -6737,7 +6737,7 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
-      <c r="AD14" s="56"/>
+      <c r="AD14" s="31"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -6760,7 +6760,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -6779,7 +6779,7 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="56"/>
+      <c r="AD15" s="31"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -6802,7 +6802,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -6821,7 +6821,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="56"/>
+      <c r="AD16" s="31"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
@@ -6844,7 +6844,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -6863,7 +6863,7 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="56"/>
+      <c r="AD17" s="31"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -6886,7 +6886,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
@@ -6905,7 +6905,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="56"/>
+      <c r="AD18" s="31"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -6928,7 +6928,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
@@ -6947,7 +6947,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
-      <c r="AD19" s="56"/>
+      <c r="AD19" s="31"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -6970,7 +6970,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="55"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
@@ -6989,7 +6989,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="56"/>
+      <c r="AD20" s="31"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -7012,7 +7012,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -7031,7 +7031,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
-      <c r="AD21" s="56"/>
+      <c r="AD21" s="31"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -7054,7 +7054,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -7073,7 +7073,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="56"/>
+      <c r="AD22" s="31"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -7096,7 +7096,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -7115,7 +7115,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="56"/>
+      <c r="AD23" s="31"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -7138,7 +7138,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -7157,7 +7157,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="56"/>
+      <c r="AD24" s="31"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -7180,7 +7180,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="55"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -7199,7 +7199,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="56"/>
+      <c r="AD25" s="31"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -7222,7 +7222,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="30"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -7241,7 +7241,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
-      <c r="AD26" s="56"/>
+      <c r="AD26" s="31"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
@@ -7264,26 +7264,26 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="59"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="34"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -10808,7 +10808,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10817,146 +10817,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -11310,26 +11310,26 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="71"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="46"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -11352,7 +11352,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="72"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -11371,7 +11371,7 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
-      <c r="AD14" s="73"/>
+      <c r="AD14" s="48"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -11394,7 +11394,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -11413,7 +11413,7 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="73"/>
+      <c r="AD15" s="48"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -11436,7 +11436,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="72"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -11455,7 +11455,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="73"/>
+      <c r="AD16" s="48"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
@@ -11478,7 +11478,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -11497,7 +11497,7 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="73"/>
+      <c r="AD17" s="48"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -11520,7 +11520,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="72"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
@@ -11539,7 +11539,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="73"/>
+      <c r="AD18" s="48"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -11562,7 +11562,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
@@ -11581,7 +11581,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
-      <c r="AD19" s="73"/>
+      <c r="AD19" s="48"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -11604,7 +11604,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="72"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
@@ -11623,7 +11623,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="73"/>
+      <c r="AD20" s="48"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -11646,7 +11646,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -11665,7 +11665,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
-      <c r="AD21" s="73"/>
+      <c r="AD21" s="48"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -11688,7 +11688,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="72"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -11707,7 +11707,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="73"/>
+      <c r="AD22" s="48"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -11730,7 +11730,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="72"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -11749,7 +11749,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="73"/>
+      <c r="AD23" s="48"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -11772,7 +11772,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="72"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -11791,7 +11791,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="73"/>
+      <c r="AD24" s="48"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -11814,7 +11814,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -11833,7 +11833,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="73"/>
+      <c r="AD25" s="48"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -11856,7 +11856,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="72"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -11875,7 +11875,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
-      <c r="AD26" s="73"/>
+      <c r="AD26" s="48"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
@@ -11898,26 +11898,26 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="75"/>
-      <c r="Y27" s="75"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="75"/>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="76"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -12059,40 +12059,40 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="78"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="78"/>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="78"/>
-      <c r="AH31" s="78"/>
-      <c r="AI31" s="78"/>
-      <c r="AJ31" s="78"/>
-      <c r="AK31" s="78"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
@@ -15411,6 +15411,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -15418,14 +15425,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15441,8 +15441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4026C572-812E-4B22-9D80-F8F3C19BF7C9}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView topLeftCell="A11" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15451,146 +15451,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -15944,26 +15944,26 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="63"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="38"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -15986,7 +15986,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="64"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -16005,7 +16005,7 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
-      <c r="AD14" s="65"/>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -16028,7 +16028,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="64"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -16047,7 +16047,7 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="65"/>
+      <c r="AD15" s="40"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -16070,7 +16070,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="64"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -16089,7 +16089,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="65"/>
+      <c r="AD16" s="40"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
@@ -16112,7 +16112,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="64"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -16131,7 +16131,7 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="65"/>
+      <c r="AD17" s="40"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -16154,7 +16154,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="64"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
@@ -16173,7 +16173,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="65"/>
+      <c r="AD18" s="40"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -16196,7 +16196,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="64"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
@@ -16215,7 +16215,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
-      <c r="AD19" s="65"/>
+      <c r="AD19" s="40"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -16238,7 +16238,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="64"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
@@ -16257,7 +16257,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="65"/>
+      <c r="AD20" s="40"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -16280,7 +16280,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="64"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -16299,7 +16299,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
-      <c r="AD21" s="65"/>
+      <c r="AD21" s="40"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -16322,7 +16322,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="64"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -16341,7 +16341,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="65"/>
+      <c r="AD22" s="40"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -16360,11 +16360,11 @@
       <c r="D23" s="24"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="60"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="64"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -16383,7 +16383,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="65"/>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -16406,7 +16406,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="64"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -16425,7 +16425,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="65"/>
+      <c r="AD24" s="40"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -16448,7 +16448,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="64"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -16467,7 +16467,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="65"/>
+      <c r="AD25" s="40"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -16490,7 +16490,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="64"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -16509,7 +16509,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
-      <c r="AD26" s="65"/>
+      <c r="AD26" s="40"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
@@ -16532,26 +16532,26 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="68"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="43"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -20045,6 +20045,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -20052,14 +20059,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -20085,146 +20085,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -24707,146 +24707,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -29329,146 +29329,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33951,146 +33951,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -38573,146 +38573,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
